--- a/src/main/resources/xlsx/cpc/cpc_template.xlsx
+++ b/src/main/resources/xlsx/cpc/cpc_template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5A16D70C-9FC8-442C-B652-162406253294}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC01E7BD-4D31-413A-A30E-5FC05BA7F783}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>school内设机构干部配备情况</t>
+    <t>school内设机构处级干部配备情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -81,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,7 +134,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -270,11 +270,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -312,24 +364,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -337,6 +371,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -625,7 +689,7 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.9" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.9" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.875" style="9" customWidth="1"/>
@@ -644,131 +708,131 @@
     <col min="15" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:14" ht="39.6" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
     </row>
-    <row r="2" spans="1:14" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:14" ht="22.9" customHeight="1">
+      <c r="A2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="22.9" customHeight="1">
+      <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="18" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="15" t="s">
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="17"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="16"/>
     </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14" t="s">
+    <row r="4" spans="1:14" s="3" customFormat="1" ht="22.9" customHeight="1">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="13" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="13" t="s">
+      <c r="I4" s="17"/>
+      <c r="J4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="13" t="s">
+      <c r="M4" s="16"/>
+      <c r="N4" s="22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+    <row r="5" spans="1:14" s="3" customFormat="1" ht="22.9" customHeight="1">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="17"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="25"/>
       <c r="L5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="13"/>
+      <c r="N5" s="23"/>
     </row>
-    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="30" customHeight="1">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -786,11 +850,11 @@
       <c r="M6" s="7"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:14" ht="30" customHeight="1">
+      <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="7"/>
@@ -806,6 +870,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A7:B7"/>
@@ -822,7 +887,6 @@
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:I4"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/xlsx/cpc/cpc_template.xlsx
+++ b/src/main/resources/xlsx/cpc/cpc_template.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC01E7BD-4D31-413A-A30E-5FC05BA7F783}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5219BB-8EB0-484C-9521-CEB29AEE982B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无行政级别干部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>合  计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,6 +70,10 @@
   </si>
   <si>
     <t>school内设机构处级干部配备情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聘任制（无级别）干部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -364,6 +364,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -382,6 +388,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -389,18 +401,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -686,7 +686,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.9" customHeight="1"/>
@@ -709,128 +709,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="39.6" customHeight="1">
-      <c r="A1" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
+      <c r="A1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="22.9" customHeight="1">
-      <c r="A2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
+      <c r="A2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" ht="22.9" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="21" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="16"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="18"/>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="22.9" customHeight="1">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18" t="s">
+      <c r="I4" s="19"/>
+      <c r="J4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="22" t="s">
+      <c r="M4" s="18"/>
+      <c r="N4" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="3" customFormat="1" ht="22.9" customHeight="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="16"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="25"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="14"/>
       <c r="L5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="23"/>
+      <c r="N5" s="22"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
       <c r="A6" s="2">
@@ -851,10 +851,10 @@
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="16"/>
+      <c r="A7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="18"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="7"/>
@@ -870,6 +870,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="A1:N1"/>
@@ -886,7 +887,6 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
